--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +1009,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1044,28 +1056,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1090,28 +1102,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1356,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1391,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1449,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1633,10 +1645,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1680,28 +1692,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1726,28 +1738,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1905,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1940,28 +1952,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +1998,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2107,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2142,28 +2154,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2200,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2413,10 +2425,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2460,28 +2472,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2506,28 +2518,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2673,10 +2685,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2720,28 +2732,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2766,28 +2778,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2962,10 +2974,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3009,28 +3021,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3055,28 +3067,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3251,10 +3263,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3298,28 +3310,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3344,28 +3356,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3569,10 +3581,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3616,28 +3628,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3662,28 +3674,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3928,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3963,28 +3975,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4021,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4234,10 +4246,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4281,28 +4293,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4327,28 +4339,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4465,10 +4477,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4512,28 +4524,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4558,28 +4570,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4754,10 +4766,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4801,28 +4813,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4847,28 +4859,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5014,10 +5026,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5061,28 +5073,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5107,28 +5119,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5274,10 +5286,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5321,28 +5333,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5367,28 +5379,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5505,10 +5517,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5552,28 +5564,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5598,28 +5610,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5765,10 +5777,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5812,28 +5824,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5858,28 +5870,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5967,10 +5979,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6014,28 +6026,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6060,28 +6072,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6198,10 +6210,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6245,28 +6257,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6291,28 +6303,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
